--- a/steel/data/up-stream/焦炭/焦炭销量.xlsx
+++ b/steel/data/up-stream/焦炭/焦炭销量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\ffa\steel\data\up-stream\焦炭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\up-stream\焦炭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55494CE0-46D5-4DB9-9053-4FE87BAC72E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4D39A-CD95-4E17-9D77-53BFCA2257F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{8407B2CB-3167-4F9C-9E4C-88E19032CDA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8407B2CB-3167-4F9C-9E4C-88E19032CDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>howard</author>
+    <author>FUDIAN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9CB38D0B-8AED-42B1-AE9D-8A722AFB1C59}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EAB65DD9-400F-4FAD-B0C5-A85C59442E5E}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvNpi0S7Gxxm6JHwNb/nAdaTgL9zbfyoua7q8iPSLpkwEFfWERpvJiTEH4Y9W1Q9bHAl5yGGB5RWJBgrK47UKgo7jOaPmd9zCMnCw6NgzdBvF2YmrspsQac9bMh3ytVeKdll37dooi1pFNPX1ovXu29nILKKFTQ7KDBGSPcuKoDmoDsWFffRG9+72x7RzU4SqICuj85pz3ACnwUJ2WaECa/EoAkL5oWPK7klLKwGVDRK5CVHrTncTrqP8I83thCbJwelvqB3pwRFqVjp0GagE3rrKDD1ZXrE1/uRw/OU4YzTfDsYuksS1jqQ1yZ/+6ah5wLZq8KN2MUHqceO1k5eRzZ30yNoPy2a9QmvfpEmsCsiWKL3aVqolZOYRWI4vLZivvgj0LpV7MvNGx6tyW54JNVHUCuDXBXAfVyqRyZBlQ2sTJLQ4Bq6LJsE4qsi9akbjl7oHLkPK8fIGxn871oup0h69M8ZSWWdD2Y36EVLOucuQrnRe9AXHnK+0rbrF2Meg3iLo0pLK/HH+Sn2qpn//SC1XVKg0VzE3LulwAQV+vOVQ3Xa3TshuoiaVWmO+IsruDhUa4VuattqSW5Dw3d3RWYi+Q8Hf+lmtszM8Trm5dSk0+vAvIv22/gmKYfgOhIKDTid0KBn5rR0JnBysQQkYMZUx7GfDLCydMwINcxaSu6empJhibXJ5znpSZDQFpbfMzCvV2/6vEcwaPPFQOAnOpLfIR2PfWX7ZRgoPWANEQxoiUhbmv3VyF9HgKiJrOyfPHleJXaR/bi6QYFNE27uSWaZqIfXgluEDshE8XEvF0gRO3wJEM0QvnMIelgluSKyX+n4sDikNjPvw1Y0FJtMlZfWYr/vFn/1SY0U6sVrvSjAzj94EIvlWAigsFzPN8VY8NuizJSKxgio0IfoLgK/pl9dS8lFgvvhIdJI61rwt+AzXVPOF2V5bXNFrVNNVsaX9v66u9aGL44j/EW2mpVUsmRK7xasEjGckliNZHNF7WogZm/ErM4Xzrw1zLbNT8AsKm+891olTFHZwt7uQBVb7G19lKPsvJrAMCOpSUPw8d4dnoQSX/wQTtk5uWEaPaaCC1DohPgrEwPv+DVHN1jPQBl8M0dNC7CDas6b9qfhKrvgW839Q/JAAv8lmsVImIg3t8lvW+JiFv6qW8I3cJW4jWysOq5cqDv7bnsdTOg2zdES1fJTmLn3h22QBklpqvJt51LQcW5lOmg2N6/67ffpgplev7fYr47/XuStBt/3WjjuNC3XVfTjQLusm6fPCCGLrP8HY5MmhlKbWaLv+LYzkGtRkA1aN5Dlns1bRpHhWKHFDg==</t>
+          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTIhVaMplO5MnYeZFPGROJInXNT32Agt5/V9rWLRZgNxwPRcbPoVGvuNaAMDuHShCRn1dYKRJ2HPb9B8yf14mOrNwmce9d7cE41VvdNbTCeOXPcZiY3BjRYtX3GxwNCwruLqj3Rdb1NIl/ADf35j3zjQ3xRfpZagB4GXXoidm1fC/rzuVUD1l0xsizuNRDXVzShdwFQnvRVjGmWRAh9gkJN1RV65PLBXJgJqH60n7ymjlxYrsQVlzNXxLJKqwzRMMeIG6j6aCCBlUxMi5W8v0LybLmNIh9YlqQ4MFMMSz/ex8KFsttjpKy2gijjnHm7G82OwgZLszFty0TPbdF0gNL1F0HB9JeC2H+4pj+1a9XW//YIO/lU8+A3BmD4o80mBdrpmJL9MaQ4T9Br18EtUSWX2bNnMGEX/iuhy2blEfUTqyv2cJKt1w3jMeDXlohCW327GZQ8R0il/5R76b7nDIfhfENrT2o2fdhOcAcLRJgvG2zlWl+PakIriPw8wUr58TbWAnMMJq2XZPk6yIuIIe6u0/uT/Es9uzbF6GAYrJSIHoj8NZo/WahdwqpMK00yrDiRvwuTeWWNH43UlLI7Au9OpWWcAt/Ekf6Ys64670ZI+hOyGcdIt2vXX+gaib66bOdRUwxfcUIW6FtvonElvDZzVjAxGld8m1F0YVhqrj8dfkPYYXXkg3qVQQ3vAu2iODsCQAapLuwuOtB5z2glYiSUAqvn1z0ymemj8lAkeCrx3IEqyKzpv0buFfc10NYxN/P83tWvgbUBWxxfAKRTv+wP71XJ/ROrMA2vyzbCA0FPiL2nbgnQRko6E1z8mcZbeyCv0zTVSlNgn2C1MHrk2iCVRsv+ZkoPR9ALcaOzjKgiUNbk/fqeRO9F1qGEHmHgf4yngH7bxi39+4bcg7n61BKdZaBRxptOmf8tltb7anSu5Rpj2XuACG25FYaXdtmdzefhODatcnmPUgyPcomXJpedMlNe/5MQpSQETM1Uaq7xchcdgGCLSr5jTdz0OXYQRIHgwFdsTvhFe4dsq8Otts7G0LQOq34Ulbbz4Japv9Z5d8mKM2+9Mpcb49t6OEgfsMIwBJyhW3YAEq3uWCMu6rWH4rGil1UUYkpSUneCQ5cPFuVDxI46etASYfuGH4fvtpKXwkC4VfSOGTM/3nolUasoi5bOlCfstGhrvczTGVZhQ8/g+26tBrAOWp8Yy4E5QarfdSwT6Bz/54MzEn7nhqhWYO6z410i7r7lWY/vY8POqZ3vAynUdwde8EsgM9li4al6XzrIy01mzt77+c9Rd2bkBRxKZHrOYKI2bntZ1JF8HgXsSyi0ztZyTxJXlCio/yc64kQDvmUjEl90McctwB6XZ+9HYrY1Gjfvg1Euu0TLuJ1OS46ZWZUyevpcihtxiIxqKcTAEYyPZrjOqfH84awhvLbEVeLES1k7O/1qtocQb5/UgdWDUU3MZ7VkyDimHfOGR0ZYTFpk8n966Dx2aQkZus+9GZ6BJBQ9TxT49n3nbv2RxUKoyrcjqTXgIsKpF5sKBs5KKSmlAbQkFWxiCYgIfAqYFYkekz8a0icsb+td6dyHXK1RDixQHinaN8lXh60XTdtL2tbvfTK73NBY1qLM56flz+iMoHTaZbWEqbWlbjVMdmMXvqIMoCDrJQVmMXlY9SAwt5AyGDxslXbQXoYHi8Xkz+7mGMvpi+TKsrndgFmjvuW0L1/E+hE1jgTvbkKcBnlgyYO9GcqYObwjO0tks+OU85OW1/up8n70Cq9p7tlKUOYS7E+oNSzKkDIJydF4kElroaoQTA==</t>
         </r>
       </text>
     </comment>
@@ -601,24 +601,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2010-1-1","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>40543</v>
       </c>
@@ -763,7 +763,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>40908</v>
       </c>
@@ -792,7 +792,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>41274</v>
       </c>
@@ -821,7 +821,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>41639</v>
       </c>
@@ -850,7 +850,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>42004</v>
       </c>
@@ -879,7 +879,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>42369</v>
       </c>
@@ -908,7 +908,7 @@
         <v>-39.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>42735</v>
       </c>
@@ -937,7 +937,7 @@
         <v>-33.799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43100</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>43465</v>
       </c>
@@ -995,7 +995,7 @@
         <v>-458.6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>43830</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44196</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>-998.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44561</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>-516</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>

--- a/steel/data/up-stream/焦炭/焦炭销量.xlsx
+++ b/steel/data/up-stream/焦炭/焦炭销量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\up-stream\焦炭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\up-stream\焦炭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4D39A-CD95-4E17-9D77-53BFCA2257F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8916335F-10C8-4ECB-8109-52BD2DD009F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8407B2CB-3167-4F9C-9E4C-88E19032CDA7}"/>
+    <workbookView xWindow="2850" yWindow="3225" windowWidth="28800" windowHeight="14685" xr2:uid="{8407B2CB-3167-4F9C-9E4C-88E19032CDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>FUDIAN</author>
+    <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EAB65DD9-400F-4FAD-B0C5-A85C59442E5E}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BEC1C11A-7A5D-43CB-89A1-00CFC03F0F53}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTIhVaMplO5MnYeZFPGROJInXNT32Agt5/V9rWLRZgNxwPRcbPoVGvuNaAMDuHShCRn1dYKRJ2HPb9B8yf14mOrNwmce9d7cE41VvdNbTCeOXPcZiY3BjRYtX3GxwNCwruLqj3Rdb1NIl/ADf35j3zjQ3xRfpZagB4GXXoidm1fC/rzuVUD1l0xsizuNRDXVzShdwFQnvRVjGmWRAh9gkJN1RV65PLBXJgJqH60n7ymjlxYrsQVlzNXxLJKqwzRMMeIG6j6aCCBlUxMi5W8v0LybLmNIh9YlqQ4MFMMSz/ex8KFsttjpKy2gijjnHm7G82OwgZLszFty0TPbdF0gNL1F0HB9JeC2H+4pj+1a9XW//YIO/lU8+A3BmD4o80mBdrpmJL9MaQ4T9Br18EtUSWX2bNnMGEX/iuhy2blEfUTqyv2cJKt1w3jMeDXlohCW327GZQ8R0il/5R76b7nDIfhfENrT2o2fdhOcAcLRJgvG2zlWl+PakIriPw8wUr58TbWAnMMJq2XZPk6yIuIIe6u0/uT/Es9uzbF6GAYrJSIHoj8NZo/WahdwqpMK00yrDiRvwuTeWWNH43UlLI7Au9OpWWcAt/Ekf6Ys64670ZI+hOyGcdIt2vXX+gaib66bOdRUwxfcUIW6FtvonElvDZzVjAxGld8m1F0YVhqrj8dfkPYYXXkg3qVQQ3vAu2iODsCQAapLuwuOtB5z2glYiSUAqvn1z0ymemj8lAkeCrx3IEqyKzpv0buFfc10NYxN/P83tWvgbUBWxxfAKRTv+wP71XJ/ROrMA2vyzbCA0FPiL2nbgnQRko6E1z8mcZbeyCv0zTVSlNgn2C1MHrk2iCVRsv+ZkoPR9ALcaOzjKgiUNbk/fqeRO9F1qGEHmHgf4yngH7bxi39+4bcg7n61BKdZaBRxptOmf8tltb7anSu5Rpj2XuACG25FYaXdtmdzefhODatcnmPUgyPcomXJpedMlNe/5MQpSQETM1Uaq7xchcdgGCLSr5jTdz0OXYQRIHgwFdsTvhFe4dsq8Otts7G0LQOq34Ulbbz4Japv9Z5d8mKM2+9Mpcb49t6OEgfsMIwBJyhW3YAEq3uWCMu6rWH4rGil1UUYkpSUneCQ5cPFuVDxI46etASYfuGH4fvtpKXwkC4VfSOGTM/3nolUasoi5bOlCfstGhrvczTGVZhQ8/g+26tBrAOWp8Yy4E5QarfdSwT6Bz/54MzEn7nhqhWYO6z410i7r7lWY/vY8POqZ3vAynUdwde8EsgM9li4al6XzrIy01mzt77+c9Rd2bkBRxKZHrOYKI2bntZ1JF8HgXsSyi0ztZyTxJXlCio/yc64kQDvmUjEl90McctwB6XZ+9HYrY1Gjfvg1Euu0TLuJ1OS46ZWZUyevpcihtxiIxqKcTAEYyPZrjOqfH84awhvLbEVeLES1k7O/1qtocQb5/UgdWDUU3MZ7VkyDimHfOGR0ZYTFpk8n966Dx2aQkZus+9GZ6BJBQ9TxT49n3nbv2RxUKoyrcjqTXgIsKpF5sKBs5KKSmlAbQkFWxiCYgIfAqYFYkekz8a0icsb+td6dyHXK1RDixQHinaN8lXh60XTdtL2tbvfTK73NBY1qLM56flz+iMoHTaZbWEqbWlbjVMdmMXvqIMoCDrJQVmMXlY9SAwt5AyGDxslXbQXoYHi8Xkz+7mGMvpi+TKsrndgFmjvuW0L1/E+hE1jgTvbkKcBnlgyYO9GcqYObwjO0tks+OU85OW1/up8n70Cq9p7tlKUOYS7E+oNSzKkDIJydF4kElroaoQTA==</t>
+          <t>yVjpCgZpNvNpi0S7Gxxm6JHwNb/nAdaTgL9zbfyoua7q8iPSLpkwEFfWERpvJiTEH4Y9W1Q9bHAl5yGGB5RWJBgrK47UKgo7jOaPmd9zCMnCw6NgzdBvF2YmrspsQac9bMh3ytVeKdll37dooi1pFNPX1ovXu29nILKKFTQ7KDBGSPcuKoDmoDsWFffRG9+72x7RzU4SqICuj85pz3ACnwUJ2WaECa/EoAkL5oWPK7klLKwGVDRK5CVHrTncTrqP8I83thCbJwelvqB3pwRFqVjp0GagE3rrKDD1ZXrE1/uRw/OU4YzTfDsYuksS1jqQ1yZ/+6ah5wLZq8KN2MUHqceO1k5eRzZ30yNoPy2a9QmvfpEmsCsiWKL3aVqolZOYRWI4vLZivvgj0LpV7MvNGx6tyW54JNVHUCuDXBXAfVyqRyZBlQ2sTJLQ4Bq6LJsE4qsi9akbjl7oHLkPK8fIGxn871oup0h69M8ZSWWdD2Y36EVLOucuQrnRe9AXHnK+0rbrF2Meg3iLo0pLK/HH+Sn2qpn//SC1XVKg0VzE3LulwAQV+vOVQ3Xa3TshuoiaVWmO+IsruDhUa4VuattqSW5Dw3d3RWYi+Q8Hf+lmtszM8Trm5dSk0+vAvIv22/gmKYfgOhIKDTid0KBn5rR0JnBysQQkYMZUx7GfDLCydMwINcxaSu6empJhibXJ5znpSZDQFpbfMzCvV2/6vEcwaPPFQOAnOpLfIR2PfWX7ZRgoPWANEQxoiUhbmv3VyF9HgKiJrOyfPHleJXaR/bi6QYFNE27uSWaZqIfXgluEDshE8XEvF0gRO3wJEM0QvnMIelgluSKyX+n4sDikNjPvw1Y0FJtMlZfWYr/vFn/1SY0U6sVrvSjAzj94EIvlWAigsFzPN8VY8NuizJSKxgio0IfoLgK/pl9dS8lFgvvhIdJI61rwt+AzXVPOF2V5bXNFrVNNVsaX9v66u9aGL44j/EW2mpVUsmRK7xasEjGckliNZHNF7WogZm/ErM4Xzrw1zLbNT8AsKm+891olTFHZwt7uQBVb7G19lKPsvJrAMCOpSUPw8d4dnoQSX/wQTtk5uWEaPaaCC1DohPgrEwPv+DVHN1jPQBl8M0dNC7CDas6b9qfhKrvgW839Q/JAAv8lmsVImIg3t8lvW+JiFv6qW8I3cJW4jWysOq5cqDv7bnsdTOg2zdES1fJTmLn3h22QBklpqvJt51LQcW5lOmg2N6/67ffpgplev7fYr47/XuStBt/3WjjuNC3XVfTjQLusm6fPCCGLrP8HY5MmhlKbWaLv+LYzkGtRkA1aN5Dlns1bRpHhWKHFDg==</t>
         </r>
       </text>
     </comment>
@@ -301,9 +301,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -341,7 +341,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -447,7 +447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -589,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,24 +601,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2010-1-1","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>40543</v>
       </c>
@@ -763,7 +763,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>40908</v>
       </c>
@@ -792,7 +792,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>41274</v>
       </c>
@@ -821,7 +821,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>41639</v>
       </c>
@@ -850,7 +850,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>42004</v>
       </c>
@@ -879,7 +879,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>42369</v>
       </c>
@@ -908,7 +908,7 @@
         <v>-39.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>42735</v>
       </c>
@@ -937,7 +937,7 @@
         <v>-33.799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>43100</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>43465</v>
       </c>
@@ -995,7 +995,7 @@
         <v>-458.6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>43830</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>44196</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>-998.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>44561</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>-516</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
